--- a/medicine/Psychotrope/Cotton_Candy_(cépage)/Cotton_Candy_(cépage).xlsx
+++ b/medicine/Psychotrope/Cotton_Candy_(cépage)/Cotton_Candy_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cotton_Candy_(c%C3%A9page)</t>
+          <t>Cotton_Candy_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le raisin Cotton Candy est une variété de raisin de table sucré dont le goût a été comparé à celui de la barbe à papa. Ces raisins ont été mis au point par l'horticulteur David Cain et son équipe de l'International Fruit Genetics (en) (IFG), un sélectionneur de fruits basé à Bakersfield, en Californie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le raisin Cotton Candy est une variété de raisin de table sucré dont le goût a été comparé à celui de la barbe à papa. Ces raisins ont été mis au point par l'horticulteur David Cain et son équipe de l'International Fruit Genetics (en) (IFG), un sélectionneur de fruits basé à Bakersfield, en Californie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cotton_Candy_(c%C3%A9page)</t>
+          <t>Cotton_Candy_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Développement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Cain, généticien des fruits et ancien chercheur de l'USDA, a cofondé IFG à Bakersfield en 2001[2]. Quelques mois après avoir créé la société, il a assisté à un salon professionnel où des chercheurs de l'université de l'Arkansas présentaient des raisins. L'un d'eux était un raisin Concord violet au goût sucré comme de la barbe à papa, mais fragile avec de minuscules graines. Il a obtenu une licence pour ce raisin et a commencé à travailler pour améliorer la taille et la texture en croisant les raisins avec des raisins californiens plus robustes[3]. Il a pollinisé à la main (en) des millions de raisins pour combiner les raisins Concord sucrés avec des raisins communs afin de les rendre plus fermes[4]. Le pollen des fleurs de raisin mâles a été extrait et badigeonné sur les grappes femelles de la plante cible. Pendant douze ans, cent mille plants ont été créés et cultivés dans des tubes à essai avant de mettre au point la variété de raisin Cotton Candy[1]. En 2010, l'IFG a breveté le raisin et a commencé à en concéder la licence à des producteurs, dont le producteur californien Grapery[3]. Grapery a été fondé en 1996 par Jack Pandol, diplômé en sciences végétales de l'UC Davis et producteur de raisin de troisième génération, et était copropriétaire d'un autre producteur, Jim Beagle[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Cain, généticien des fruits et ancien chercheur de l'USDA, a cofondé IFG à Bakersfield en 2001. Quelques mois après avoir créé la société, il a assisté à un salon professionnel où des chercheurs de l'université de l'Arkansas présentaient des raisins. L'un d'eux était un raisin Concord violet au goût sucré comme de la barbe à papa, mais fragile avec de minuscules graines. Il a obtenu une licence pour ce raisin et a commencé à travailler pour améliorer la taille et la texture en croisant les raisins avec des raisins californiens plus robustes. Il a pollinisé à la main (en) des millions de raisins pour combiner les raisins Concord sucrés avec des raisins communs afin de les rendre plus fermes. Le pollen des fleurs de raisin mâles a été extrait et badigeonné sur les grappes femelles de la plante cible. Pendant douze ans, cent mille plants ont été créés et cultivés dans des tubes à essai avant de mettre au point la variété de raisin Cotton Candy. En 2010, l'IFG a breveté le raisin et a commencé à en concéder la licence à des producteurs, dont le producteur californien Grapery. Grapery a été fondé en 1996 par Jack Pandol, diplômé en sciences végétales de l'UC Davis et producteur de raisin de troisième génération, et était copropriétaire d'un autre producteur, Jim Beagle,.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cotton_Candy_(c%C3%A9page)</t>
+          <t>Cotton_Candy_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aucun arôme artificiel n'est ajouté pour donner aux raisins une saveur semblable à celle de la barbe à papa[7]. Pesant environ 18 grammes (0,63 oz) de sucre pour 100 grammes (3,5 oz) de raisins, les raisins de la barbe à papa contiennent environ 2 g (0,071 oz) de sucre en plus pour 100 g (3,5 oz) que les raisins de table ordinaires[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aucun arôme artificiel n'est ajouté pour donner aux raisins une saveur semblable à celle de la barbe à papa. Pesant environ 18 grammes (0,63 oz) de sucre pour 100 grammes (3,5 oz) de raisins, les raisins de la barbe à papa contiennent environ 2 g (0,071 oz) de sucre en plus pour 100 g (3,5 oz) que les raisins de table ordinaires.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cotton_Candy_(c%C3%A9page)</t>
+          <t>Cotton_Candy_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,13 @@
           <t>Production et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre la Californie, les producteurs cultivent également le raisin au Pérou, en Espagne, en Italie, au Chili, au Brésil, en Afrique du Sud, en Australie et au Mexique[8],[9].
-Le fruit est disponible dans tous les États des États-Unis, mais uniquement sur une base saisonnière[4]. Les détaillants comprennent Trader Joe's, Metropolitan Market et Whole Foods[6].
-En septembre 2017, les raisins de l'entreprise étaient vendus dans 14 pays[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre la Californie, les producteurs cultivent également le raisin au Pérou, en Espagne, en Italie, au Chili, au Brésil, en Afrique du Sud, en Australie et au Mexique,.
+Le fruit est disponible dans tous les États des États-Unis, mais uniquement sur une base saisonnière. Les détaillants comprennent Trader Joe's, Metropolitan Market et Whole Foods.
+En septembre 2017, les raisins de l'entreprise étaient vendus dans 14 pays.
 </t>
         </is>
       </c>
